--- a/kvision/ksample/mytable/result/005_63bcd.xlsx
+++ b/kvision/ksample/mytable/result/005_63bcd.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,9 +64,12 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -438,776 +455,776 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>主要财务比率</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>2022E</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>2023E</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>2024E</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>成长能力</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>营业收入</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>97.08%</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>33.284</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>65.00%</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>42.10%</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>营业利润</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>165.21%</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>22.38%</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>31.65%</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>64.55%</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>36.68</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>归属于母公司净利润</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>164.75%</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>24.17%</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>39.44%6</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>64.13%</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>38.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>获利能力</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr"/>
-      <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>毛利率</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>25.45%</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>23.01%</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>16.80%</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>17.00%</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>18.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>净利率</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>13.98%</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>13.03%</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>11.01%</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>12.726</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>14.576</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>19.29%</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>19.254</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>20.77%6</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>47.11%</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>35.246</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ROIC</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>44.53%</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>41.55%</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>44.21%</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>32.59%</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>62.14%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>偿债能力</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr"/>
-      <c r="D11" s="1" t="inlineStr"/>
-      <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>资产负债率</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>48.28%</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>54.90%</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>57.796</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>65.62%6</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>58.84h</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>净负债率</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>-39.12%</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>-36.03%</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>6.62%6</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>5.28%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>流动比率</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>速动比率</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>0.62</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>0.81</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>营运能力</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>应收账款周转率</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>存货周转率</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>总资产周转率</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>每股指标（元）</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr"/>
-      <c r="D20" s="1" t="inlineStr"/>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>每股收益</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>每股经营现金流</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>-2.54</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>4.28</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-1.13</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>每股净资产</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>6.97</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>估值比率</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr"/>
-      <c r="D24" s="1" t="inlineStr"/>
-      <c r="E24" s="1" t="inlineStr"/>
-      <c r="F24" s="1" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>市盈率</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>41.30</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>33.26</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>23.85</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>14.53</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>10.48</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>市净率</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>7.97</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>6.85</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>22.72</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>23.65</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>14.40</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>10.60</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>5.33</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>24.19</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>25.45</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>15.05</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>10.95</t>
         </is>

--- a/kvision/ksample/mytable/result/005_63bcd.xlsx
+++ b/kvision/ksample/mytable/result/005_63bcd.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,20 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,12 +78,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -455,776 +472,776 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>主要财务比率</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>2022E</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>2023E</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>2024E</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>成长能力</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr"/>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>营业收入</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>97.08%</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>33.284</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>65.00%</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>42.10%</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>营业利润</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>165.21%</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>22.38%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>31.65%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>64.55%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>36.68</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>归属于母公司净利润</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>164.75%</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>24.17%</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>39.44%6</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>64.13%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>38.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>获利能力</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>毛利率</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>25.45%</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>23.01%</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>16.80%</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>17.00%</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>18.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>净利率</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>13.98%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>13.03%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>11.01%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>12.726</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>14.576</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>19.29%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>19.254</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>20.77%6</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>47.11%</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>35.246</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>ROIC</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>44.53%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>41.55%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>44.21%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>32.59%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>62.14%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>偿债能力</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr"/>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="B11" s="3" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>资产负债率</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>48.28%</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>54.90%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>57.796</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>65.62%6</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>58.84h</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>净负债率</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>-39.12%</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>-36.03%</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>6.62%6</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>5.28%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>流动比率</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>速动比率</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>0.62</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>0.81</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>营运能力</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr"/>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>应收账款周转率</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>存货周转率</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>总资产周转率</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>每股指标（元）</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr"/>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr"/>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>每股收益</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>每股经营现金流</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>-2.54</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>4.28</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>-1.13</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>每股净资产</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>6.97</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>估值比率</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr"/>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>市盈率</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>41.30</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>33.26</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>23.85</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>14.53</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>10.48</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>市净率</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>7.97</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>6.85</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>22.72</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>23.65</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>14.40</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>10.60</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>5.33</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>24.19</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>25.45</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>15.05</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>10.95</t>
         </is>

--- a/kvision/ksample/mytable/result/005_63bcd.xlsx
+++ b/kvision/ksample/mytable/result/005_63bcd.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,6 +71,20 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -78,7 +92,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -87,6 +101,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -472,776 +489,776 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>主要财务比率</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>2022E</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>2023E</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>2024E</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>成长能力</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
-      <c r="F2" s="3" t="inlineStr"/>
+      <c r="B2" s="4" t="inlineStr"/>
+      <c r="C2" s="4" t="inlineStr"/>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>营业收入</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>97.08%</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>33.284</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>65.00%</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>42.10%</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>营业利润</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>165.21%</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>22.38%</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>31.65%</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>64.55%</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>36.68</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>归属于母公司净利润</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>164.75%</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>24.17%</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>39.44%6</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>64.13%</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>38.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>获利能力</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>毛利率</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>25.45%</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>23.01%</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>16.80%</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>17.00%</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>18.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>净利率</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>13.98%</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>13.03%</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>11.01%</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>12.726</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>14.576</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>19.29%</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>19.254</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>20.77%6</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>47.11%</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>35.246</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>ROIC</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>44.53%</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>41.55%</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>44.21%</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>32.59%</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>62.14%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>偿债能力</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr"/>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr"/>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>资产负债率</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>48.28%</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>54.90%</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>57.796</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>65.62%6</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>58.84h</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>净负债率</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>-39.12%</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>-36.03%</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>6.62%6</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>5.28%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>流动比率</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>速动比率</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>0.62</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>0.81</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>营运能力</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr"/>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>应收账款周转率</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>存货周转率</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>总资产周转率</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>每股指标（元）</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr"/>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>每股收益</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>每股经营现金流</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>-2.54</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>4.28</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>-1.13</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>每股净资产</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>6.97</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>估值比率</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>市盈率</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>41.30</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>33.26</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>23.85</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>14.53</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>10.48</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>市净率</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>7.97</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>6.85</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>22.72</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>23.65</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>14.40</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>10.60</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>5.33</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>24.19</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>25.45</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>15.05</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>10.95</t>
         </is>
